--- a/Ciberseguridad/ciberseguridad.xlsx
+++ b/Ciberseguridad/ciberseguridad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario\Cristian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usr\DSPT\Desktop\Ciberseguridad\Ciberseguridad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{559C709A-964B-4876-B966-CD49249C8ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E8A8D5-F174-42FD-8C41-ECFE790C8277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="139">
   <si>
     <t>cal</t>
   </si>
@@ -450,13 +448,16 @@
   </si>
   <si>
     <t>wazuh</t>
+  </si>
+  <si>
+    <t>Prueba git</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,21 +963,21 @@
   <dimension ref="B1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" style="6" customWidth="1"/>
     <col min="7" max="7" width="101" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -996,7 +997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" s="1" customFormat="1" ht="45">
       <c r="B2" s="2">
         <v>5</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" s="3">
         <v>5</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30">
       <c r="B4" s="3">
         <v>5</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="30">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1128,7 +1129,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="30">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="30">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -1206,7 +1207,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14" s="3">
         <v>5</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7">
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="30">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="30">
       <c r="B18" s="3">
         <v>3</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="30">
       <c r="B19" s="3">
         <v>5</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="3">
         <v>5</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="30">
       <c r="B21" s="3">
         <v>5</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="30">
       <c r="B22" s="3">
         <v>3</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
@@ -1420,7 +1421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7">
       <c r="B24" s="3">
         <v>5</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7">
       <c r="B25" s="3">
         <v>4</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7">
       <c r="B26" s="3">
         <v>5</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>96</v>
@@ -1490,7 +1491,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="45">
       <c r="B28" s="3">
         <v>5</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="45">
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="30">
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="45">
       <c r="B31" s="3">
         <v>5</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7">
       <c r="B32" s="3">
         <v>5</v>
       </c>
@@ -1586,7 +1587,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1594,7 +1595,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1602,7 +1603,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1610,7 +1611,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1618,7 +1619,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1626,7 +1627,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1634,7 +1635,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1642,7 +1643,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1650,7 +1651,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1658,7 +1659,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1666,7 +1667,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7">
       <c r="B43" s="3">
         <v>5</v>
       </c>
@@ -1678,7 +1679,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1688,7 +1689,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" ht="30">
       <c r="B45" s="3">
         <v>5</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="60">
       <c r="B46" s="3">
         <v>5</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7">
       <c r="B47" s="3">
         <v>5</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7">
       <c r="B48" s="3">
         <v>5</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7">
       <c r="B49" s="3">
         <v>5</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" ht="60">
       <c r="B50" s="3">
         <v>5</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="51" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" ht="30">
       <c r="B51" s="3">
         <v>5</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1822,7 +1823,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1832,7 +1833,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1842,15 +1843,17 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1858,7 +1861,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -1866,7 +1869,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -1874,7 +1877,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -1882,7 +1885,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1890,7 +1893,7 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -1898,7 +1901,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1906,7 +1909,7 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -1914,7 +1917,7 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1922,7 +1925,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -1930,7 +1933,7 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -1938,7 +1941,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -1946,7 +1949,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -1954,7 +1957,7 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -1962,7 +1965,7 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -1970,7 +1973,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -1978,7 +1981,7 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -1986,7 +1989,7 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -1994,7 +1997,7 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2002,7 +2005,7 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2010,7 +2013,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2018,7 +2021,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2026,7 +2029,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2034,7 +2037,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2042,7 +2045,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2050,7 +2053,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2058,7 +2061,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -2066,7 +2069,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2074,7 +2077,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -2082,7 +2085,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -2090,7 +2093,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2098,7 +2101,7 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7">
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -2106,7 +2109,7 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7">
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -2114,7 +2117,7 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7">
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -2122,7 +2125,7 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7">
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -2130,7 +2133,7 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7">
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -2138,7 +2141,7 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7">
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -2146,7 +2149,7 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7">
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -2154,7 +2157,7 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7">
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
